--- a/TestAutomationZ/caseexcel/apicase/APIExample.xlsx
+++ b/TestAutomationZ/caseexcel/apicase/APIExample.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="16155" windowHeight="10845"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -474,6 +475,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="94.5">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="121.5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="108">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -483,130 +613,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="27">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="40.5">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="40.5">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
